--- a/EXCEL/ExcelDataAnalysisFD_Examples/Chapter03.xlsx
+++ b/EXCEL/ExcelDataAnalysisFD_Examples/Chapter03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b1777c78eef3b74d/Workbooks/Excel Data Analysis FD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meihua/Documents/MyHomePage/arielmei.github.io/EXCEL/ExcelDataAnalysisFD_Examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{0228FAC9-E8EC-4140-BE9A-310D20763279}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{CB1DA802-0546-4AC2-A5EF-6B5E2BD781F3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC51497-382C-4145-9E9A-CD151513F9FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7425" xr2:uid="{943EB65B-E811-4B97-96E9-567CBBC736FC}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26640" windowHeight="15580" activeTab="1" xr2:uid="{943EB65B-E811-4B97-96E9-567CBBC736FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="Criteria2">[1]Defects!$H$3:$H$4</definedName>
     <definedName name="CurrentDate">'[1]Accounts Receivable Data'!$I$1</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="702">
   <si>
     <t>Customer ID</t>
   </si>
@@ -2144,6 +2144,74 @@
   </si>
   <si>
     <t>&gt; 1,000</t>
+  </si>
+  <si>
+    <t>Range ⬄ Table</t>
+  </si>
+  <si>
+    <t>Choose Range ➮ Insert ➮ Tables  (or Command + T)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Choose any cell of Table </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="+mn-ea"/>
+      </rPr>
+      <t xml:space="preserve">➮ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Data </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="+mn-ea"/>
+      </rPr>
+      <t xml:space="preserve">➮ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Table Tool </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="+mn-ea"/>
+      </rPr>
+      <t xml:space="preserve">➮ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Convert to Range</t>
+    </r>
+  </si>
+  <si>
+    <t>Advanced Filters</t>
   </si>
 </sst>
 </file>
@@ -2155,7 +2223,7 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="166" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2240,6 +2308,26 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF0432FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="+mn-ea"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2428,7 +2516,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2495,6 +2583,8 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2816,7 +2906,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{99BAFE49-8C9E-4A33-A51C-1C2CCFF2E7A3}" name="Table3" displayName="Table3" ref="A5:H13" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A5:H13" xr:uid="{11C8705D-C4CF-42DB-A3B4-73C903D47FA7}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{ABB420EF-CD42-46A0-92FE-7DBE32932E1C}" name="Division" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{D1FFC587-9B00-4276-BE2A-D9CC9AF6A81D}" name="Description" dataDxfId="6"/>
@@ -3132,26 +3221,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1150C23-9BCE-4239-A449-9D631F67923D}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="14" customWidth="1"/>
     <col min="2" max="2" width="26" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="14" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="14" customWidth="1"/>
-    <col min="9" max="16384" width="9.28515625" style="14"/>
+    <col min="3" max="3" width="12.5" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="14" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="14" customWidth="1"/>
+    <col min="9" max="16384" width="9.33203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="24">
       <c r="A1" s="18" t="s">
         <v>672</v>
       </c>
@@ -3176,20 +3265,33 @@
       <c r="H1" s="21" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="30" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="15" customFormat="1" ht="21">
       <c r="E2" s="29"/>
       <c r="F2" s="29" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="31" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="15" customFormat="1" ht="21">
       <c r="D3" s="29" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" customFormat="1" ht="15" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:8" s="28" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="31" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" customFormat="1" ht="24">
+      <c r="J4" s="30" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="28" customFormat="1" ht="39" customHeight="1">
       <c r="A5" s="26" t="s">
         <v>672</v>
       </c>
@@ -3215,7 +3317,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="22">
         <v>4</v>
       </c>
@@ -3243,7 +3345,7 @@
         <v>0.71442215854823288</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="22">
         <v>3</v>
       </c>
@@ -3271,7 +3373,7 @@
         <v>1.0833333333333335</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="22">
         <v>3</v>
       </c>
@@ -3299,7 +3401,7 @@
         <v>0.87898089171974525</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="22">
         <v>2</v>
       </c>
@@ -3327,7 +3429,7 @@
         <v>0.30905511811023617</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="22">
         <v>4</v>
       </c>
@@ -3355,7 +3457,7 @@
         <v>0.49545211342964141</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="22">
         <v>3</v>
       </c>
@@ -3383,7 +3485,7 @@
         <v>0.91318327974276536</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12" s="22">
         <v>1</v>
       </c>
@@ -3411,7 +3513,7 @@
         <v>0.45255474452554739</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13" s="22">
         <v>2</v>
       </c>
@@ -3439,19 +3541,19 @@
         <v>0.73316708229426453</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:6">
       <c r="E17" s="16"/>
       <c r="F17" s="17"/>
     </row>
@@ -3473,26 +3575,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAB9C89-DC26-44BE-8918-78CFB6557D46}">
   <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14" style="1" customWidth="1"/>
     <col min="2" max="2" width="33" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="2" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3524,7 +3626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -3556,7 +3658,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="8" t="s">
         <v>20</v>
       </c>
@@ -3588,7 +3690,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="10" t="s">
         <v>29</v>
       </c>
@@ -3620,7 +3722,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="8" t="s">
         <v>35</v>
       </c>
@@ -3652,7 +3754,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="10" t="s">
         <v>43</v>
       </c>
@@ -3684,7 +3786,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="8" t="s">
         <v>52</v>
       </c>
@@ -3716,7 +3818,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="10" t="s">
         <v>59</v>
       </c>
@@ -3748,7 +3850,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="8" t="s">
         <v>68</v>
       </c>
@@ -3780,7 +3882,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="10" t="s">
         <v>76</v>
       </c>
@@ -3812,7 +3914,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="8" t="s">
         <v>83</v>
       </c>
@@ -3844,7 +3946,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="10" t="s">
         <v>93</v>
       </c>
@@ -3876,7 +3978,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="8" t="s">
         <v>99</v>
       </c>
@@ -3908,7 +4010,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="10" t="s">
         <v>108</v>
       </c>
@@ -3940,7 +4042,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="8" t="s">
         <v>114</v>
       </c>
@@ -3972,7 +4074,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="10" t="s">
         <v>122</v>
       </c>
@@ -4004,7 +4106,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="8" t="s">
         <v>132</v>
       </c>
@@ -4036,7 +4138,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="10" t="s">
         <v>138</v>
       </c>
@@ -4068,7 +4170,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="8" t="s">
         <v>145</v>
       </c>
@@ -4100,7 +4202,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="10" t="s">
         <v>152</v>
       </c>
@@ -4132,7 +4234,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="8" t="s">
         <v>158</v>
       </c>
@@ -4164,7 +4266,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="10" t="s">
         <v>167</v>
       </c>
@@ -4196,7 +4298,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="8" t="s">
         <v>174</v>
       </c>
@@ -4228,7 +4330,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="10" t="s">
         <v>180</v>
       </c>
@@ -4260,7 +4362,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="8" t="s">
         <v>188</v>
       </c>
@@ -4292,7 +4394,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="10" t="s">
         <v>195</v>
       </c>
@@ -4324,7 +4426,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="8" t="s">
         <v>202</v>
       </c>
@@ -4356,7 +4458,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="10" t="s">
         <v>207</v>
       </c>
@@ -4388,7 +4490,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="8" t="s">
         <v>215</v>
       </c>
@@ -4420,7 +4522,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="10" t="s">
         <v>223</v>
       </c>
@@ -4452,7 +4554,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="8" t="s">
         <v>230</v>
       </c>
@@ -4484,7 +4586,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="10" t="s">
         <v>237</v>
       </c>
@@ -4516,7 +4618,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="8" t="s">
         <v>244</v>
       </c>
@@ -4548,7 +4650,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="10" t="s">
         <v>253</v>
       </c>
@@ -4580,7 +4682,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="8" t="s">
         <v>262</v>
       </c>
@@ -4612,7 +4714,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10">
       <c r="A36" s="10" t="s">
         <v>270</v>
       </c>
@@ -4644,7 +4746,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10">
       <c r="A37" s="8" t="s">
         <v>278</v>
       </c>
@@ -4676,7 +4778,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10">
       <c r="A38" s="10" t="s">
         <v>285</v>
       </c>
@@ -4708,7 +4810,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10">
       <c r="A39" s="8" t="s">
         <v>293</v>
       </c>
@@ -4740,7 +4842,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10">
       <c r="A40" s="10" t="s">
         <v>301</v>
       </c>
@@ -4772,7 +4874,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10">
       <c r="A41" s="8" t="s">
         <v>308</v>
       </c>
@@ -4804,7 +4906,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10">
       <c r="A42" s="10" t="s">
         <v>315</v>
       </c>
@@ -4836,7 +4938,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10">
       <c r="A43" s="8" t="s">
         <v>322</v>
       </c>
@@ -4868,7 +4970,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10">
       <c r="A44" s="10" t="s">
         <v>329</v>
       </c>
@@ -4900,7 +5002,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10">
       <c r="A45" s="8" t="s">
         <v>337</v>
       </c>
@@ -4932,7 +5034,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10">
       <c r="A46" s="10" t="s">
         <v>344</v>
       </c>
@@ -4964,7 +5066,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10">
       <c r="A47" s="8" t="s">
         <v>352</v>
       </c>
@@ -4996,7 +5098,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10">
       <c r="A48" s="10" t="s">
         <v>360</v>
       </c>
@@ -5028,7 +5130,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10">
       <c r="A49" s="8" t="s">
         <v>368</v>
       </c>
@@ -5060,7 +5162,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10">
       <c r="A50" s="10" t="s">
         <v>375</v>
       </c>
@@ -5092,7 +5194,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10">
       <c r="A51" s="8" t="s">
         <v>382</v>
       </c>
@@ -5124,7 +5226,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10">
       <c r="A52" s="10" t="s">
         <v>390</v>
       </c>
@@ -5156,7 +5258,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10">
       <c r="A53" s="8" t="s">
         <v>398</v>
       </c>
@@ -5188,7 +5290,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10">
       <c r="A54" s="10" t="s">
         <v>405</v>
       </c>
@@ -5220,7 +5322,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10">
       <c r="A55" s="8" t="s">
         <v>411</v>
       </c>
@@ -5252,7 +5354,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10">
       <c r="A56" s="10" t="s">
         <v>416</v>
       </c>
@@ -5284,7 +5386,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10">
       <c r="A57" s="8" t="s">
         <v>424</v>
       </c>
@@ -5316,7 +5418,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10">
       <c r="A58" s="10" t="s">
         <v>431</v>
       </c>
@@ -5348,7 +5450,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10">
       <c r="A59" s="8" t="s">
         <v>438</v>
       </c>
@@ -5380,7 +5482,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10">
       <c r="A60" s="10" t="s">
         <v>444</v>
       </c>
@@ -5412,7 +5514,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10">
       <c r="A61" s="8" t="s">
         <v>451</v>
       </c>
@@ -5444,7 +5546,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10">
       <c r="A62" s="10" t="s">
         <v>457</v>
       </c>
@@ -5476,7 +5578,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10">
       <c r="A63" s="8" t="s">
         <v>463</v>
       </c>
@@ -5508,7 +5610,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10">
       <c r="A64" s="10" t="s">
         <v>469</v>
       </c>
@@ -5540,7 +5642,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10">
       <c r="A65" s="8" t="s">
         <v>476</v>
       </c>
@@ -5572,7 +5674,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10">
       <c r="A66" s="10" t="s">
         <v>481</v>
       </c>
@@ -5604,7 +5706,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10">
       <c r="A67" s="8" t="s">
         <v>490</v>
       </c>
@@ -5636,7 +5738,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10">
       <c r="A68" s="10" t="s">
         <v>497</v>
       </c>
@@ -5668,7 +5770,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10">
       <c r="A69" s="8" t="s">
         <v>503</v>
       </c>
@@ -5700,7 +5802,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10">
       <c r="A70" s="10" t="s">
         <v>510</v>
       </c>
@@ -5732,7 +5834,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10">
       <c r="A71" s="8" t="s">
         <v>516</v>
       </c>
@@ -5764,7 +5866,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10">
       <c r="A72" s="10" t="s">
         <v>524</v>
       </c>
@@ -5796,7 +5898,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10">
       <c r="A73" s="8" t="s">
         <v>532</v>
       </c>
@@ -5828,7 +5930,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10">
       <c r="A74" s="10" t="s">
         <v>538</v>
       </c>
@@ -5860,7 +5962,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10">
       <c r="A75" s="8" t="s">
         <v>546</v>
       </c>
@@ -5892,7 +5994,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10">
       <c r="A76" s="10" t="s">
         <v>552</v>
       </c>
@@ -5924,7 +6026,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10">
       <c r="A77" s="8" t="s">
         <v>560</v>
       </c>
@@ -5956,7 +6058,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10">
       <c r="A78" s="10" t="s">
         <v>567</v>
       </c>
@@ -5988,7 +6090,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10">
       <c r="A79" s="8" t="s">
         <v>573</v>
       </c>
@@ -6020,7 +6122,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10">
       <c r="A80" s="10" t="s">
         <v>581</v>
       </c>
@@ -6052,7 +6154,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10">
       <c r="A81" s="8" t="s">
         <v>588</v>
       </c>
@@ -6084,7 +6186,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10">
       <c r="A82" s="10" t="s">
         <v>593</v>
       </c>
@@ -6116,7 +6218,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10">
       <c r="A83" s="8" t="s">
         <v>599</v>
       </c>
@@ -6148,7 +6250,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10">
       <c r="A84" s="10" t="s">
         <v>606</v>
       </c>
@@ -6180,7 +6282,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10">
       <c r="A85" s="8" t="s">
         <v>613</v>
       </c>
@@ -6212,7 +6314,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10">
       <c r="A86" s="10" t="s">
         <v>620</v>
       </c>
@@ -6244,7 +6346,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10">
       <c r="A87" s="8" t="s">
         <v>627</v>
       </c>
@@ -6276,7 +6378,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10">
       <c r="A88" s="10" t="s">
         <v>634</v>
       </c>
@@ -6308,7 +6410,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10">
       <c r="A89" s="8" t="s">
         <v>642</v>
       </c>
@@ -6340,7 +6442,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10">
       <c r="A90" s="10" t="s">
         <v>649</v>
       </c>
@@ -6372,7 +6474,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10">
       <c r="A91" s="8" t="s">
         <v>656</v>
       </c>
@@ -6404,7 +6506,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10">
       <c r="A92" s="12" t="s">
         <v>664</v>
       </c>
